--- a/Arduino/Documentation/MicroRato2017_calculations.xlsx
+++ b/Arduino/Documentation/MicroRato2017_calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Diam(mm)</t>
   </si>
@@ -54,6 +54,9 @@
     <t>v(uStep/s)</t>
   </si>
   <si>
+    <t>x(mm)</t>
+  </si>
+  <si>
     <t>steps(n)</t>
   </si>
   <si>
@@ -97,6 +100,48 @@
   </si>
   <si>
     <t>num sensors</t>
+  </si>
+  <si>
+    <t>t(s)</t>
+  </si>
+  <si>
+    <t>IR Beam made with 7805</t>
+  </si>
+  <si>
+    <t>R1(ohm)</t>
+  </si>
+  <si>
+    <t>Iq(A)</t>
+  </si>
+  <si>
+    <t>I(A)</t>
+  </si>
+  <si>
+    <t>Pr(W)</t>
+  </si>
+  <si>
+    <t>Vin(v)</t>
+  </si>
+  <si>
+    <t>n LED</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>Vdo L7805</t>
+  </si>
+  <si>
+    <t>Vout L7805</t>
+  </si>
+  <si>
+    <t>Vr(V)</t>
+  </si>
+  <si>
+    <t>R(ohm)</t>
+  </si>
+  <si>
+    <t>Iled(A)</t>
   </si>
 </sst>
 </file>
@@ -171,8 +216,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -207,7 +262,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -218,6 +273,11 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -228,6 +288,11 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,7 +636,7 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>84</v>
       </c>
@@ -594,20 +659,8 @@
         <f>2*PI()*B2</f>
         <v>263.89378290154264</v>
       </c>
-      <c r="I2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <f>I3/I2</f>
-        <v>2.2727272727272728E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -621,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>8</v>
       </c>
@@ -637,7 +690,7 @@
         <v>6.0630454511198222</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -651,10 +704,19 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -663,39 +725,49 @@
         <v>6063.0454511198222</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4">
         <f>C8*D5</f>
-        <v>606.30454511198218</v>
+        <v>1000.4024994347707</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f>I8*J8</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>153</v>
       </c>
@@ -715,18 +787,18 @@
         <v>120.16591899980959</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <f>B16*2</f>
         <v>256</v>
@@ -739,7 +811,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:15">
       <c r="F17">
         <v>116</v>
       </c>
@@ -748,35 +820,35 @@
         <v>120.83333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>343000</v>
       </c>
@@ -799,7 +871,7 @@
         <v>5.1311953352769675E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>6.0630454511198222</v>
       </c>
@@ -811,7 +883,7 @@
         <v>1600.643999095633</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -821,6 +893,212 @@
       <c r="C27">
         <f>B27*A27</f>
         <v>1584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C33" s="6">
+        <f>5/(A33-B33)</f>
+        <v>574.71264367816093</v>
+      </c>
+      <c r="D33" s="6">
+        <f>C33*(A33-B33)^2</f>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <f>5/H33+G33</f>
+        <v>1.4120512820512819E-2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>390</v>
+      </c>
+      <c r="I33" s="6">
+        <f>H33*(F33-G33)^2</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="K33" s="7">
+        <f>O33+N33+M33*L33</f>
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1.75</v>
+      </c>
+      <c r="N33">
+        <v>2.5</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C34" s="6">
+        <f>5/(A34-B34)</f>
+        <v>174.21602787456447</v>
+      </c>
+      <c r="D34" s="6">
+        <f>C34*(A34-B34)^2</f>
+        <v>0.14350000000000002</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F35" si="0">5/H34+G34</f>
+        <v>1.1716666666666667E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H34" s="7">
+        <v>480</v>
+      </c>
+      <c r="I34" s="6">
+        <f>H34*(F34-G34)^2</f>
+        <v>5.2083333333333343E-2</v>
+      </c>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C35" s="6">
+        <f>5/(A35-B35)</f>
+        <v>102.6694045174538</v>
+      </c>
+      <c r="D35" s="6">
+        <f>C35*(A35-B35)^2</f>
+        <v>0.24350000000000002</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6451515151515151E-2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>330</v>
+      </c>
+      <c r="I35" s="6">
+        <f>H35*(F35-G35)^2</f>
+        <v>7.575757575757576E-2</v>
+      </c>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="7">
+        <v>12</v>
+      </c>
+      <c r="B38" s="7">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.75</v>
+      </c>
+      <c r="D38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <f>A38-B38*C38</f>
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <f>E38/D38</f>
+        <v>100</v>
+      </c>
+      <c r="G38" s="6">
+        <f>F38*D38^2</f>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Documentation/MicroRato2017_calculations.xlsx
+++ b/Arduino/Documentation/MicroRato2017_calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Diam(mm)</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Iled(A)</t>
+  </si>
+  <si>
+    <t>Beam Detector</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,11 +251,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,7 +272,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -278,6 +288,9 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -293,6 +306,9 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -655,7 +671,7 @@
         <f>A2/2</f>
         <v>42</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f>2*PI()*B2</f>
         <v>263.89378290154264</v>
       </c>
@@ -706,13 +722,16 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -720,14 +739,14 @@
       <c r="A8">
         <v>1000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <f>A8*D5</f>
         <v>6063.0454511198222</v>
       </c>
       <c r="C8">
         <v>165</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f>C8*D5</f>
         <v>1000.4024994347707</v>
       </c>
@@ -735,18 +754,34 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <f>I8*J8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <f>K9/J9</f>
+        <v>13.194689145077131</v>
+      </c>
+      <c r="J9">
         <v>0.1</v>
       </c>
+      <c r="K9" s="3">
+        <f>H9/D5</f>
+        <v>1.3194689145077132</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -760,10 +795,10 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -775,26 +810,26 @@
         <f>A13/2</f>
         <v>76.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f>2*PI()*B13</f>
         <v>480.66367599923836</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>90</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <f>D13/360*C13</f>
         <v>120.16591899980959</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="G14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -821,7 +856,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
@@ -859,7 +894,7 @@
         <f>(B21*2)/A21</f>
         <v>1.2827988338192419E-3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <f>1/A21</f>
         <v>2.9154518950437319E-6</v>
       </c>
@@ -896,39 +931,39 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L32" t="s">
@@ -945,35 +980,35 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>0.01</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <f>5/(A33-B33)</f>
         <v>574.71264367816093</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <f>C33*(A33-B33)^2</f>
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <f>5/H33+G33</f>
         <v>1.4120512820512819E-2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>390</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="7">
         <f>H33*(F33-G33)^2</f>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="8">
         <f>O33+N33+M33*L33</f>
         <v>11</v>
       </c>
@@ -991,69 +1026,69 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>0.03</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <f>5/(A34-B34)</f>
         <v>174.21602787456447</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <f>C34*(A34-B34)^2</f>
         <v>0.14350000000000002</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <f t="shared" ref="F34:F35" si="0">5/H34+G34</f>
         <v>1.1716666666666667E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>480</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="7">
         <f>H34*(F34-G34)^2</f>
         <v>5.2083333333333343E-2</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>0.05</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <f>5/(A35-B35)</f>
         <v>102.6694045174538</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <f>C35*(A35-B35)^2</f>
         <v>0.24350000000000002</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>1.6451515151515151E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>330</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="7">
         <f>H35*(F35-G35)^2</f>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -1071,34 +1106,65 @@
       <c r="F37" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>12</v>
       </c>
-      <c r="B38" s="7">
-        <v>6</v>
+      <c r="B38" s="8">
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="D38">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E38">
         <f>A38-B38*C38</f>
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="F38">
         <f>E38/D38</f>
-        <v>100</v>
-      </c>
-      <c r="G38" s="6">
+        <v>150</v>
+      </c>
+      <c r="G38" s="7">
         <f>F38*D38^2</f>
-        <v>2.2499999999999999E-2</v>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="8">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
+      </c>
+      <c r="D39">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <f>A39-B39*C39</f>
+        <v>3.5</v>
+      </c>
+      <c r="F39">
+        <f>(A39-(B39*C39))/D39</f>
+        <v>70</v>
+      </c>
+      <c r="G39" s="7">
+        <f>F39*D39^2</f>
+        <v>0.17500000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
